--- a/cst/prest/cpc_data.xlsx
+++ b/cst/prest/cpc_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
   <si>
     <t>ID</t>
   </si>
@@ -39,292 +39,388 @@
     <t>Diag1</t>
   </si>
   <si>
-    <t>Diag2</t>
-  </si>
-  <si>
-    <t>2018-09-03</t>
-  </si>
-  <si>
-    <t>NYIRARUVUGO LAURENCE</t>
+    <t>Act1</t>
+  </si>
+  <si>
+    <t>Quantity1</t>
+  </si>
+  <si>
+    <t>Act2</t>
+  </si>
+  <si>
+    <t>Quantity2</t>
+  </si>
+  <si>
+    <t>2019-12-03</t>
+  </si>
+  <si>
+    <t>Uwamahoro Jacquerline</t>
   </si>
   <si>
     <t>CBHI</t>
   </si>
   <si>
+    <t>CPN</t>
+  </si>
+  <si>
+    <t>2019-12-05</t>
+  </si>
+  <si>
+    <t>NYIRANSABIMANA Cloudine</t>
+  </si>
+  <si>
+    <t>Mukandayisenga GERMAINE</t>
+  </si>
+  <si>
+    <t>Ingabire Dancille</t>
+  </si>
+  <si>
+    <t>Dusenguhoraho Ernestine</t>
+  </si>
+  <si>
+    <t>Mukamugenzi Velonique</t>
+  </si>
+  <si>
+    <t>Uwizeyimana Rose</t>
+  </si>
+  <si>
+    <t>NIYITEGEKA JACQUELINE</t>
+  </si>
+  <si>
+    <t>RSSB RAMA</t>
+  </si>
+  <si>
+    <t>Imanishimwe Louise</t>
+  </si>
+  <si>
+    <t>Muhawenimana Aline</t>
+  </si>
+  <si>
+    <t>MUKAMPUNGA HENRIETTE</t>
+  </si>
+  <si>
+    <t>Byukusenge Francoise</t>
+  </si>
+  <si>
+    <t>UWIHIRWE CHANTAL</t>
+  </si>
+  <si>
+    <t>Nyirabajyinama Vestine</t>
+  </si>
+  <si>
+    <t>Mutabazi Beatha</t>
+  </si>
+  <si>
+    <t>NIYOKWIZERWA RACHEL</t>
+  </si>
+  <si>
+    <t>2019-12-06</t>
+  </si>
+  <si>
+    <t>umfuyisoni beatha</t>
+  </si>
+  <si>
+    <t>19327443k</t>
+  </si>
+  <si>
+    <t>Uwitonze Josephine</t>
+  </si>
+  <si>
+    <t>2019-12-09</t>
+  </si>
+  <si>
+    <t>NIYONSABA ADELINE</t>
+  </si>
+  <si>
+    <t>IYAKAREMYE COLETTE</t>
+  </si>
+  <si>
+    <t>BARAJIGINWYWA</t>
+  </si>
+  <si>
+    <t>Hakizimana Baptise</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>NYIRAHABINEZA ELINA</t>
+  </si>
+  <si>
+    <t>Kambabazi Matilde</t>
+  </si>
+  <si>
+    <t>muhimpundu john</t>
+  </si>
+  <si>
+    <t>MMI</t>
+  </si>
+  <si>
+    <t>NYIRAMINANI EUGENIE</t>
+  </si>
+  <si>
+    <t>Nyiransabimana Jeannette</t>
+  </si>
+  <si>
+    <t>MUKAMUNANA Janviere</t>
+  </si>
+  <si>
+    <t>MUTUYIMANA NAOME</t>
+  </si>
+  <si>
+    <t>NYIRINKWAYA Vincent</t>
+  </si>
+  <si>
+    <t>MPAYIMANA NEPOMUSCENE</t>
+  </si>
+  <si>
+    <t>NZABONIMANA Emmanuel</t>
+  </si>
+  <si>
+    <t>MUHAWENIMANA Clementine</t>
+  </si>
+  <si>
+    <t>NIYONGIRA Valantine</t>
+  </si>
+  <si>
+    <t>2019-12-16</t>
+  </si>
+  <si>
+    <t>Uwiragiye Seraphine</t>
+  </si>
+  <si>
+    <t>mukahigiro pelagie</t>
+  </si>
+  <si>
     <t>CPC</t>
   </si>
   <si>
-    <t>HTA</t>
-  </si>
-  <si>
-    <t>NYIRANEZA ALPHONSINE</t>
-  </si>
-  <si>
-    <t>Asthme</t>
-  </si>
-  <si>
-    <t>HABIMANA MODESTE</t>
-  </si>
-  <si>
-    <t>Epilepsie</t>
-  </si>
-  <si>
-    <t>NJAMAHORO NOEL</t>
-  </si>
-  <si>
-    <t>NYIRANTOKI ANNE</t>
-  </si>
-  <si>
-    <t>Parasitose Intestinale</t>
-  </si>
-  <si>
-    <t>GASTRITE</t>
-  </si>
-  <si>
-    <t>ITEGEKWANANDE PASCAL</t>
-  </si>
-  <si>
-    <t>prondotalgie</t>
-  </si>
-  <si>
-    <t>UWINEZA JOSELYNE</t>
-  </si>
-  <si>
-    <t>IVRI</t>
-  </si>
-  <si>
-    <t>NYIRABARIRWANDA ALPHONSINE</t>
-  </si>
-  <si>
-    <t>RAA - Rhumatisme articulaire aigu, douleur musculaire</t>
-  </si>
-  <si>
-    <t>kinesitherenpieduroture</t>
-  </si>
-  <si>
-    <t>UWAMARIYA CHANTAL</t>
-  </si>
-  <si>
-    <t>Menace d'avortement</t>
-  </si>
-  <si>
-    <t>SEZIKEYE SAMUEL</t>
-  </si>
-  <si>
-    <t>Diabète - Type 2</t>
-  </si>
-  <si>
-    <t>UWIMANA JEAN PAUL</t>
-  </si>
-  <si>
-    <t>NYIRAMBONYIMANA VALENTINE</t>
-  </si>
-  <si>
-    <t>Metrorragie</t>
-  </si>
-  <si>
-    <t>UWIRINGIYIMANA GAUDENCE</t>
-  </si>
-  <si>
-    <t>INF.URINAIRE</t>
-  </si>
-  <si>
-    <t>AFF .GYNECOLOGIQUE</t>
-  </si>
-  <si>
-    <t>INGABIRE GERMAINE</t>
-  </si>
-  <si>
-    <t>CONJOCTIVITE</t>
-  </si>
-  <si>
-    <t>MUKANTWARI ANATHALIE</t>
-  </si>
-  <si>
-    <t>SPLENOMEGARIE</t>
-  </si>
-  <si>
-    <t>ascite</t>
-  </si>
-  <si>
-    <t>NIRINGIYIMANA LOUISE</t>
-  </si>
-  <si>
-    <t>MORSURE DU CHIEN</t>
-  </si>
-  <si>
-    <t>MUHAWENAYO CLAUDINE</t>
-  </si>
-  <si>
-    <t>NIYOMBIKESHA BEATHE</t>
-  </si>
-  <si>
-    <t>NDAGIJIMANA IBRAHIM</t>
-  </si>
-  <si>
-    <t>MUKANKUSI FLORIDE</t>
-  </si>
-  <si>
-    <t>osteite</t>
-  </si>
-  <si>
-    <t>MUGISHA GEDEON</t>
-  </si>
-  <si>
-    <t>syndrome infectieux</t>
-  </si>
-  <si>
-    <t>MUKANTAGANZWA HIIARIE</t>
-  </si>
-  <si>
-    <t>Syndrome nevralgique</t>
-  </si>
-  <si>
-    <t>Nyiranzeyimana Clementine</t>
-  </si>
-  <si>
-    <t>Private</t>
-  </si>
-  <si>
-    <t>TRAUMATISME PHYSIQUE</t>
-  </si>
-  <si>
-    <t>IGIHOZO ALIANE</t>
-  </si>
-  <si>
-    <t>otite</t>
-  </si>
-  <si>
-    <t>NYIRANDAMYIYUMVA VALENTINE</t>
-  </si>
-  <si>
-    <t>ivrs</t>
-  </si>
-  <si>
-    <t>MUKANKUNDIMANA ELINA</t>
-  </si>
-  <si>
-    <t>MUKAMUGARURA JOSEPHA</t>
-  </si>
-  <si>
-    <t>MUKANTAGARA JACQUELINE</t>
-  </si>
-  <si>
-    <t>UWIMANA ODETTE</t>
-  </si>
-  <si>
-    <t>Parasitose Intestinale -</t>
-  </si>
-  <si>
-    <t>HARINDINTWARI OBED</t>
-  </si>
-  <si>
-    <t>Mukakabera Amina</t>
-  </si>
-  <si>
-    <t>hemiplegiegauche</t>
-  </si>
-  <si>
-    <t>NZIRORERA AISHA</t>
-  </si>
-  <si>
-    <t>ablation platre</t>
-  </si>
-  <si>
-    <t>Uwimana Rosa</t>
-  </si>
-  <si>
-    <t>AYINGENEYE AGNES</t>
-  </si>
-  <si>
-    <t>MUSABYIMANA JEROME</t>
-  </si>
-  <si>
-    <t>lipome</t>
-  </si>
-  <si>
-    <t>NTAKIRUTIMANA EZECHIEL</t>
-  </si>
-  <si>
-    <t>syndrome rhumatismal</t>
-  </si>
-  <si>
-    <t>RWAJEKARE MICHEL</t>
-  </si>
-  <si>
-    <t>RAA - Rhumatisme articulaire aigu</t>
-  </si>
-  <si>
-    <t>NIYIBIZI ETIENNE</t>
-  </si>
-  <si>
-    <t>PI - Parasitose Intestinale</t>
-  </si>
-  <si>
-    <t>Nyirahagenimana Jeannette</t>
-  </si>
-  <si>
-    <t>suspution abdomenaigue</t>
-  </si>
-  <si>
-    <t>NYIRANTEZIMANA DROCELLA</t>
-  </si>
-  <si>
-    <t>ANGINE</t>
-  </si>
-  <si>
-    <t>UWIZEYIMANA VANESSA</t>
-  </si>
-  <si>
-    <t>TWAGIRAMARIYA MARIE</t>
-  </si>
-  <si>
-    <t>hepatitec</t>
-  </si>
-  <si>
-    <t>MUKAYISENGA LUCIE</t>
-  </si>
-  <si>
-    <t>Pneumonie</t>
-  </si>
-  <si>
-    <t>MURAGIJIMANA SAOUDA</t>
-  </si>
-  <si>
-    <t>dysmenorrhee</t>
-  </si>
-  <si>
-    <t>IRIHOSE BUDEDERI</t>
-  </si>
-  <si>
-    <t>SYNDROME INF</t>
-  </si>
-  <si>
-    <t>NYIRANZOGA MARIE</t>
-  </si>
-  <si>
-    <t>NYIRANSABIMANA VIRIGINIE</t>
-  </si>
-  <si>
-    <t>MUREKATETE MARIE</t>
-  </si>
-  <si>
-    <t>MUGEMANGANGO PONCIANNE</t>
-  </si>
-  <si>
-    <t>IVRI-Infection des voies respiratoires inferieuresCO-</t>
-  </si>
-  <si>
-    <t>2018-09-04</t>
-  </si>
-  <si>
-    <t>NIYIGENA ADAM</t>
-  </si>
-  <si>
-    <t>PST</t>
-  </si>
-  <si>
-    <t>Plaie</t>
+    <t>UWIMANA HYCENTHE</t>
+  </si>
+  <si>
+    <t>0106381-01</t>
+  </si>
+  <si>
+    <t>Niyonshuti Sabin</t>
+  </si>
+  <si>
+    <t>Musabyimana Marie</t>
+  </si>
+  <si>
+    <t>Nzayinambaho Valens</t>
+  </si>
+  <si>
+    <t>niyokwizerwa rose</t>
+  </si>
+  <si>
+    <t>0101885-01</t>
+  </si>
+  <si>
+    <t>Nyirabarikumana Pereth</t>
+  </si>
+  <si>
+    <t>Uwiragiye Josianne</t>
+  </si>
+  <si>
+    <t>Mushimiyimana Rose</t>
+  </si>
+  <si>
+    <t>Mugabo Jean</t>
+  </si>
+  <si>
+    <t>Kayitesi Yunis</t>
+  </si>
+  <si>
+    <t>Mukamana Esther</t>
+  </si>
+  <si>
+    <t>Habanabashaka Venant</t>
+  </si>
+  <si>
+    <t>Injection IM</t>
+  </si>
+  <si>
+    <t>Twahayimana Pascal</t>
+  </si>
+  <si>
+    <t>Habumugisha Claver</t>
+  </si>
+  <si>
+    <t>uwimana vestine</t>
+  </si>
+  <si>
+    <t>Nyiramana Therese</t>
+  </si>
+  <si>
+    <t>2019-12-19</t>
+  </si>
+  <si>
+    <t>TUYISHIME FRANCINE</t>
+  </si>
+  <si>
+    <t>Mukandekezi Rose</t>
+  </si>
+  <si>
+    <t>Yankurije Hoziane</t>
+  </si>
+  <si>
+    <t>UWAYISABA JOSIANE</t>
+  </si>
+  <si>
+    <t>Ingabire Chantal</t>
+  </si>
+  <si>
+    <t>IRADUKUNDA JEANNE</t>
+  </si>
+  <si>
+    <t>Umutoni Asia</t>
+  </si>
+  <si>
+    <t>MUTUYIMANA REBECCA</t>
+  </si>
+  <si>
+    <t>NIYIGENERA Salima</t>
+  </si>
+  <si>
+    <t>Nyirakanani Eugenie</t>
+  </si>
+  <si>
+    <t>Uwimbabazi Clarisse</t>
+  </si>
+  <si>
+    <t>Sibomana Bonifride</t>
+  </si>
+  <si>
+    <t>Yamuragiye Chantal</t>
+  </si>
+  <si>
+    <t>UMUTONIWASE CECILE</t>
+  </si>
+  <si>
+    <t>UKWITEGETSE Louise</t>
+  </si>
+  <si>
+    <t>Tuyiringire Charlotte</t>
+  </si>
+  <si>
+    <t>Uwambajimana Cloudine</t>
+  </si>
+  <si>
+    <t>uwingabire melanie</t>
+  </si>
+  <si>
+    <t>2019-12-23</t>
+  </si>
+  <si>
+    <t>Gakwandi Bertrand</t>
+  </si>
+  <si>
+    <t>ABIZERA M. TRIPHINE</t>
+  </si>
+  <si>
+    <t>Nyiramwungeri Goreth</t>
+  </si>
+  <si>
+    <t>MUKAMPARAYE LAURENCE</t>
+  </si>
+  <si>
+    <t>ingabire Claudine</t>
+  </si>
+  <si>
+    <t>GATARI SEPT</t>
+  </si>
+  <si>
+    <t>Rusanganwa Jean Damascene</t>
+  </si>
+  <si>
+    <t>MUNGANYINKA FELECITE</t>
+  </si>
+  <si>
+    <t>Mukeshimana Janviere</t>
+  </si>
+  <si>
+    <t>MUKANDAYISENGA JUDITH</t>
+  </si>
+  <si>
+    <t>Umutoni Fortune</t>
+  </si>
+  <si>
+    <t>DUSABIMANA HOSEYA</t>
+  </si>
+  <si>
+    <t>NSHIMIYIMANA Vianney</t>
+  </si>
+  <si>
+    <t>Nyandwi Andre</t>
+  </si>
+  <si>
+    <t>MUSHIMIYIMANA</t>
+  </si>
+  <si>
+    <t>Uwera Jesika</t>
+  </si>
+  <si>
+    <t>MUKAGASHUGI Enice</t>
+  </si>
+  <si>
+    <t>MUKANDAHUNGA ZEBURIYA</t>
+  </si>
+  <si>
+    <t>nikuze zabron</t>
+  </si>
+  <si>
+    <t>Ndatimana Zachee</t>
+  </si>
+  <si>
+    <t>UZABAHO Dieudonne</t>
+  </si>
+  <si>
+    <t>ILIBAGIZA Florance</t>
+  </si>
+  <si>
+    <t>Nayituriki Jeanne Gentille</t>
+  </si>
+  <si>
+    <t>Ntivuguruzwa Jean Paul</t>
+  </si>
+  <si>
+    <t>2019-12-26</t>
+  </si>
+  <si>
+    <t>NISINGIZWE Bernadette</t>
+  </si>
+  <si>
+    <t>Mukankundizanye Esther</t>
+  </si>
+  <si>
+    <t>UMUTONI NUSRA</t>
+  </si>
+  <si>
+    <t>2019-12-30</t>
+  </si>
+  <si>
+    <t>UWIZEYIMANA DOMINA</t>
+  </si>
+  <si>
+    <t>MUHAWENIMANA ALICE</t>
+  </si>
+  <si>
+    <t>Akimana Francois</t>
+  </si>
+  <si>
+    <t>MUTABAZI PIERRE</t>
+  </si>
+  <si>
+    <t>Mukagatete Delphine</t>
+  </si>
+  <si>
+    <t>NTAKIRUTIMANA JOSEPH</t>
+  </si>
+  <si>
+    <t>Ahobantegeye Francine</t>
+  </si>
+  <si>
+    <t>NZAYISENGA SOPHIE</t>
   </si>
 </sst>
 </file>
@@ -704,25 +800,28 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:L106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="I51" sqref="I51"/>
+      <selection activeCell="L106" sqref="L106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="2.999268" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="3.999023" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="10.997314" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="26.993408" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.997559" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="19.995117" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="7.998047" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="53.986816" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="53.986816" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="5.998535" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="12.996826" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="12.996826" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="9.997559" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -747,1269 +846,2928 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" s="5">
-        <v>1.1942700089111E+15</v>
+        <v>1.1995701829981E+15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" s="5"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" s="5">
-        <v>1.197770039908E+15</v>
+        <v>1.1965700125891E+15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="5"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E4" s="5">
-        <v>1.199680083818E+15</v>
+        <v>1.198870204691E+15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H4" s="5"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E5" s="5">
-        <v>1.1992800945641E+15</v>
+        <v>1.1995702162511E+15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E6" s="5">
-        <v>1.195670018905E+15</v>
+        <v>1.1995701000551E+15</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9">
+        <v>14</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1.1995800482671E+15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1.2002700248881E+15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E9" s="5">
-        <v>1.195170010104E+15</v>
+        <v>15567112</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9">
+        <v>14</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E10" s="5">
-        <v>1.1985700670591E+15</v>
+        <v>1.19947008446E+15</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E11" s="5">
-        <v>1.195380014242E+15</v>
+        <v>1.1999701552501E+15</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9">
+        <v>14</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E12" s="5">
-        <v>1.197680037371E+15</v>
+        <v>1.1994700574111E+15</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E13" s="5">
-        <v>1.1981700622031E+15</v>
+        <v>1.1998701038411E+15</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="H13" s="5"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1.19977019058E+15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9">
+        <v>14</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E15" s="5">
-        <v>2001</v>
+        <v>1.1962700809121E+15</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E16" s="5">
-        <v>1.1967700246E+15</v>
+        <v>1.1983700340401E+15</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1.1995700810521E+15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1.1997701834751E+15</v>
+        <v>23</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H18" s="5"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="5">
-        <v>1.199770211601E+15</v>
+        <v>1.198670036354E+15</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="5">
-        <v>1.1988800639121E+15</v>
+        <v>1.1996700263142E+15</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E21" s="5">
-        <v>1.197170026878E+15</v>
+        <v>126768</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="5">
-        <v>2010</v>
+        <v>1.198380037552E+15</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="5">
-        <v>1.199070058388E+15</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1.1982700415781E+15</v>
+      </c>
       <c r="F24" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="H24" s="5"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="5">
-        <v>2010</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="H25" s="5"/>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E26" s="5">
-        <v>1.1979700503531E+15</v>
+        <v>1.199380007195E+15</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="H26" s="5"/>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="5">
-        <v>1.1978700497081E+15</v>
+        <v>1.1992700137191E+15</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H27" s="5"/>
-      <c r="I27" s="8"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="5">
-        <v>1.194670007979E+15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H28" s="5"/>
-      <c r="I28" s="8"/>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E29" s="5">
-        <v>1.1963700255442E+15</v>
+        <v>1.1994700835291E+15</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H29" s="5"/>
-      <c r="I29" s="8"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E30" s="5">
-        <v>2007</v>
+        <v>1.199470161876E+15</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="H30" s="5"/>
-      <c r="I30" s="8"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E31" s="5">
-        <v>0</v>
+        <v>1.197380033979E+15</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H31" s="5"/>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1.1985800393E+15</v>
+      </c>
       <c r="F32" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="H32" s="5"/>
-      <c r="I32" s="8"/>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E33" s="5">
-        <v>1.199370055744E+15</v>
+        <v>1.1988800021941E+15</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H33" s="5"/>
-      <c r="I33" s="8"/>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E34" s="5">
-        <v>1.1989700594011E+15</v>
+        <v>1.199070189896E+15</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="8"/>
-    </row>
-    <row r="35" spans="1:9">
+        <v>14</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E35" s="5">
-        <v>1.1986701831861E+15</v>
+        <v>1.1992700849352E+15</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H35" s="5"/>
-      <c r="I35" s="8"/>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E36" s="5">
-        <v>1.198280196781E+15</v>
+        <v>1.1991700229321E+15</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="H36" s="5"/>
-      <c r="I36" s="8"/>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="5">
-        <v>1.1962800280632E+15</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="H37" s="5"/>
-      <c r="I37" s="8"/>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="5">
-        <v>1.195980024394E+15</v>
+        <v>45</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="H38" s="5"/>
-      <c r="I38" s="8"/>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E39" s="5">
-        <v>1.199280127525E+15</v>
+        <v>1.1977800243832E+15</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="H39" s="5"/>
-      <c r="I39" s="8"/>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1.1992700158861E+15</v>
+      </c>
       <c r="F40" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="H40" s="5"/>
-      <c r="I40" s="8"/>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="8"/>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" s="5">
-        <v>1.1988700620821E+15</v>
+        <v>1.198080036133E+15</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="H41" s="5"/>
-      <c r="I41" s="8"/>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="8"/>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="5">
-        <v>1.200070061771E+15</v>
+        <v>45</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="H42" s="5"/>
-      <c r="I42" s="8"/>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E43" s="5">
-        <v>1.1954700159651E+15</v>
+        <v>1.198570042448E+15</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="I43" s="8"/>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="8"/>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="5">
-        <v>1.1978700487381E+15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E44" s="5"/>
       <c r="F44" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="H44" s="5"/>
-      <c r="I44" s="8"/>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="8"/>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E45" s="5">
-        <v>1.199270200747E+15</v>
+        <v>1.199670188797E+15</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="I45" s="8"/>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="8"/>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E46" s="5">
-        <v>1.197980130377E+15</v>
+        <v>1.1974800209591E+15</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="I46" s="8"/>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="8"/>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E47" s="5">
-        <v>1.193070005346E+15</v>
+        <v>1.1984700403451E+15</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H47" s="5"/>
-      <c r="I47" s="8"/>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="8"/>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E48" s="5">
-        <v>1.1973700357031E+15</v>
+        <v>1.198070036347E+15</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I48" s="8"/>
-    </row>
-    <row r="49" spans="1:9">
+        <v>14</v>
+      </c>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="8"/>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E49" s="5">
-        <v>1.1960700252381E+15</v>
+        <v>1.1980800363621E+15</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I49" s="8"/>
-    </row>
-    <row r="50" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="I49" s="5">
+        <v>4</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K49" s="5">
+        <v>1</v>
+      </c>
+      <c r="L49" s="8"/>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C50" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="5">
+        <v>1.1986801932282E+15</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="8"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="5">
+        <v>1.198580038658E+15</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="8"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="8"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="5">
+        <v>1.1985700279452E+15</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="8"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="5">
+        <v>1.199670012972E+15</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="8"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="5">
+        <v>1.198970029641E+15</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="8"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="5">
+        <v>1.1987700418601E+15</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="8"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="8"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="5">
+        <v>1.199070031477E+15</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="8"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="5">
+        <v>1.1992701468121E+15</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="8"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="8"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="5">
+        <v>1.2001701411961E+15</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="8"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="5">
+        <v>1.1987701745423E+15</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="8"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="5">
+        <v>1.1984700392041E+15</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="8"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="5">
+        <v>1.199870035056E+15</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="8"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="5">
+        <v>1.197770024431E+15</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="8"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="8"/>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67" s="5">
+        <v>111</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="8"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="5">
+        <v>1.1986700512191E+15</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="8"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="8"/>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="5">
+        <v>1.1994701619112E+15</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="8"/>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E71" s="5">
+        <v>1.199070048659E+15</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="8"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="5">
-        <v>1.196480026457E+15</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="5" t="s">
+      <c r="C72" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="I50" s="8"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="3">
-        <v>50</v>
-      </c>
-      <c r="B51" s="6" t="s">
+      <c r="D72" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="5">
+        <v>1.1984800675661E+15</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="8"/>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="D73" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" s="5">
+        <v>30482</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="8"/>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="6">
-        <v>2003</v>
-      </c>
-      <c r="F51" s="6" t="s">
+      <c r="D74" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="5">
+        <v>1.19947001254E+15</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="8"/>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="D75" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="8"/>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H51" s="6"/>
-      <c r="I51" s="9"/>
+      <c r="D76" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="5">
+        <v>1.1993801581831E+15</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="8"/>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" s="5">
+        <v>15596205</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="8"/>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="5">
+        <v>1.198680036128E+15</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="8"/>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="5">
+        <v>1.198070038374E+15</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="8"/>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="5">
+        <v>1.198070036061E+15</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="8"/>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E81" s="5">
+        <v>128134</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="8"/>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" s="5">
+        <v>1.1989871965421E+15</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="8"/>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="5">
+        <v>1.198180038165E+15</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="8"/>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="5">
+        <v>1.196180045858E+15</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="8"/>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="5">
+        <v>1.198480040305E+15</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="8"/>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="8"/>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="5">
+        <v>1.199570000704E+15</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="8"/>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="5">
+        <v>1.198870033051E+15</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="8"/>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="5">
+        <v>1.1997701829491E+15</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="8"/>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="8"/>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="5">
+        <v>1.1997801011841E+15</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="8"/>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" s="5">
+        <v>1.1986800920241E+15</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="8"/>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="5">
+        <v>1.198870159936E+15</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="8"/>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" s="5">
+        <v>1.19997007175E+15</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="8"/>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="5">
+        <v>11974.80020046</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="8"/>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="5">
+        <v>1.1985700685491E+15</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="8"/>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="5">
+        <v>1.199170000222E+15</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="8"/>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" s="5">
+        <v>1.1998700639901E+15</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="8"/>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="2">
+        <v>98</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" s="5">
+        <v>1.198070050263E+15</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="8"/>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="2">
+        <v>99</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" s="5">
+        <v>1.2000700354861E+15</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="8"/>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="2">
+        <v>100</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="5">
+        <v>1.199580121406E+15</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="8"/>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" s="2">
+        <v>101</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="8"/>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" s="2">
+        <v>102</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" s="5">
+        <v>1.1977700243171E+15</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="8"/>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" s="2">
+        <v>103</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E104" s="5">
+        <v>15702333</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="8"/>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" s="2">
+        <v>104</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" s="5">
+        <v>1.1996700241121E+15</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="8"/>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106" s="3">
+        <v>105</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E106" s="6">
+        <v>142750</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="9"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
